--- a/CumulativeTestsByTypeByCounty/2021-03-17.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-03-17.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>49175</v>
+        <v>49199</v>
       </c>
       <c r="C2" s="4">
         <v>1441</v>
       </c>
       <c r="D2" s="4">
-        <v>6448</v>
+        <v>6472</v>
       </c>
       <c r="E2" s="4">
-        <v>57064</v>
+        <v>57112</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="C3" s="4">
         <v>209</v>
       </c>
       <c r="D3" s="4">
-        <v>2152</v>
+        <v>2189</v>
       </c>
       <c r="E3" s="4">
-        <v>6384</v>
+        <v>6422</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>52606</v>
+        <v>52657</v>
       </c>
       <c r="C4" s="4">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D4" s="4">
-        <v>20546</v>
+        <v>20706</v>
       </c>
       <c r="E4" s="4">
-        <v>74679</v>
+        <v>74891</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>7011</v>
+        <v>7029</v>
       </c>
       <c r="C5" s="4">
         <v>2127</v>
       </c>
       <c r="D5" s="4">
-        <v>5042</v>
+        <v>5056</v>
       </c>
       <c r="E5" s="4">
-        <v>14180</v>
+        <v>14212</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>2812</v>
+        <v>2813</v>
       </c>
       <c r="C6" s="4">
         <v>471</v>
       </c>
       <c r="D6" s="4">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="E6" s="4">
-        <v>3742</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,7 +1156,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C7" s="4">
         <v>232</v>
@@ -1165,7 +1165,7 @@
         <v>160</v>
       </c>
       <c r="E7" s="4">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>48335</v>
+        <v>48359</v>
       </c>
       <c r="C8" s="4">
         <v>1045</v>
       </c>
       <c r="D8" s="4">
-        <v>3982</v>
+        <v>3984</v>
       </c>
       <c r="E8" s="4">
-        <v>53362</v>
+        <v>53388</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>16588</v>
+        <v>16628</v>
       </c>
       <c r="C9" s="4">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D9" s="4">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="E9" s="4">
-        <v>18185</v>
+        <v>18228</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1213,10 +1213,10 @@
         <v>59</v>
       </c>
       <c r="D10" s="4">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E10" s="4">
-        <v>2258</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>7333</v>
+        <v>7347</v>
       </c>
       <c r="C11" s="4">
         <v>453</v>
       </c>
       <c r="D11" s="4">
-        <v>3176</v>
+        <v>3199</v>
       </c>
       <c r="E11" s="4">
-        <v>10962</v>
+        <v>10999</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>47102</v>
+        <v>47170</v>
       </c>
       <c r="C12" s="4">
         <v>1092</v>
       </c>
       <c r="D12" s="4">
-        <v>14893</v>
+        <v>14894</v>
       </c>
       <c r="E12" s="4">
-        <v>63087</v>
+        <v>63156</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1264,10 +1264,10 @@
         <v>155</v>
       </c>
       <c r="D13" s="4">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E13" s="4">
-        <v>2158</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>29940</v>
+        <v>29952</v>
       </c>
       <c r="C14" s="4">
         <v>5151</v>
       </c>
       <c r="D14" s="4">
-        <v>6343</v>
+        <v>6345</v>
       </c>
       <c r="E14" s="4">
-        <v>41434</v>
+        <v>41448</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>224564</v>
+        <v>224927</v>
       </c>
       <c r="C15" s="4">
-        <v>13200</v>
+        <v>13223</v>
       </c>
       <c r="D15" s="4">
-        <v>13450</v>
+        <v>13534</v>
       </c>
       <c r="E15" s="4">
-        <v>251214</v>
+        <v>251684</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1696310</v>
+        <v>1698103</v>
       </c>
       <c r="C16" s="4">
-        <v>47618</v>
+        <v>47631</v>
       </c>
       <c r="D16" s="4">
-        <v>172851</v>
+        <v>173143</v>
       </c>
       <c r="E16" s="4">
-        <v>1916779</v>
+        <v>1918877</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,7 +1326,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>5302</v>
+        <v>5311</v>
       </c>
       <c r="C17" s="4">
         <v>236</v>
@@ -1335,7 +1335,7 @@
         <v>633</v>
       </c>
       <c r="E17" s="4">
-        <v>6171</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>8371</v>
+        <v>8375</v>
       </c>
       <c r="C19" s="4">
         <v>464</v>
       </c>
       <c r="D19" s="4">
-        <v>4254</v>
+        <v>4266</v>
       </c>
       <c r="E19" s="4">
-        <v>13089</v>
+        <v>13105</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>56233</v>
+        <v>56285</v>
       </c>
       <c r="C20" s="4">
-        <v>9775</v>
+        <v>9776</v>
       </c>
       <c r="D20" s="4">
-        <v>10634</v>
+        <v>10691</v>
       </c>
       <c r="E20" s="4">
-        <v>76642</v>
+        <v>76752</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>293470</v>
+        <v>293987</v>
       </c>
       <c r="C21" s="4">
-        <v>9123</v>
+        <v>9147</v>
       </c>
       <c r="D21" s="4">
-        <v>30526</v>
+        <v>30593</v>
       </c>
       <c r="E21" s="4">
-        <v>333119</v>
+        <v>333727</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>224780</v>
+        <v>225353</v>
       </c>
       <c r="C22" s="4">
-        <v>5636</v>
+        <v>5645</v>
       </c>
       <c r="D22" s="4">
-        <v>15375</v>
+        <v>15379</v>
       </c>
       <c r="E22" s="4">
-        <v>245791</v>
+        <v>246377</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,7 +1428,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8469</v>
+        <v>8471</v>
       </c>
       <c r="C23" s="4">
         <v>111</v>
@@ -1437,7 +1437,7 @@
         <v>881</v>
       </c>
       <c r="E23" s="4">
-        <v>9461</v>
+        <v>9463</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,7 +1445,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C24" s="4">
         <v>117</v>
@@ -1454,7 +1454,7 @@
         <v>72</v>
       </c>
       <c r="E24" s="4">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,7 +1462,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>13635</v>
+        <v>13645</v>
       </c>
       <c r="C25" s="4">
         <v>1336</v>
@@ -1471,7 +1471,7 @@
         <v>2025</v>
       </c>
       <c r="E25" s="4">
-        <v>16996</v>
+        <v>17006</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>16018</v>
+        <v>16027</v>
       </c>
       <c r="C26" s="4">
         <v>764</v>
       </c>
       <c r="D26" s="4">
-        <v>16067</v>
+        <v>16084</v>
       </c>
       <c r="E26" s="4">
-        <v>32849</v>
+        <v>32875</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>13260</v>
+        <v>13326</v>
       </c>
       <c r="C27" s="4">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D27" s="4">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="E27" s="4">
-        <v>15668</v>
+        <v>15736</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>30909</v>
+        <v>30958</v>
       </c>
       <c r="C28" s="4">
         <v>1065</v>
       </c>
       <c r="D28" s="4">
-        <v>3265</v>
+        <v>3269</v>
       </c>
       <c r="E28" s="4">
-        <v>35239</v>
+        <v>35292</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>30467</v>
+        <v>30509</v>
       </c>
       <c r="C29" s="4">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="D29" s="4">
-        <v>5024</v>
+        <v>5034</v>
       </c>
       <c r="E29" s="4">
-        <v>37031</v>
+        <v>37085</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>12738</v>
+        <v>12751</v>
       </c>
       <c r="C30" s="4">
         <v>425</v>
       </c>
       <c r="D30" s="4">
-        <v>4411</v>
+        <v>4414</v>
       </c>
       <c r="E30" s="4">
-        <v>17574</v>
+        <v>17590</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>4879</v>
+        <v>4885</v>
       </c>
       <c r="C31" s="4">
         <v>219</v>
       </c>
       <c r="D31" s="4">
-        <v>4765</v>
+        <v>4768</v>
       </c>
       <c r="E31" s="4">
-        <v>9863</v>
+        <v>9872</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>234155</v>
+        <v>234554</v>
       </c>
       <c r="C32" s="4">
-        <v>7575</v>
+        <v>7582</v>
       </c>
       <c r="D32" s="4">
-        <v>44968</v>
+        <v>45333</v>
       </c>
       <c r="E32" s="4">
-        <v>286698</v>
+        <v>287469</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>5545</v>
+        <v>5552</v>
       </c>
       <c r="C33" s="4">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D33" s="4">
         <v>1663</v>
       </c>
       <c r="E33" s="4">
-        <v>7566</v>
+        <v>7574</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,7 +1615,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="C34" s="4">
         <v>834</v>
@@ -1624,7 +1624,7 @@
         <v>329</v>
       </c>
       <c r="E34" s="4">
-        <v>2736</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>11371</v>
+        <v>11402</v>
       </c>
       <c r="C35" s="4">
         <v>3125</v>
       </c>
       <c r="D35" s="4">
-        <v>3315</v>
+        <v>3319</v>
       </c>
       <c r="E35" s="4">
-        <v>17811</v>
+        <v>17846</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>3822</v>
+        <v>3879</v>
       </c>
       <c r="C36" s="4">
         <v>234</v>
       </c>
       <c r="D36" s="4">
-        <v>1657</v>
+        <v>1662</v>
       </c>
       <c r="E36" s="4">
-        <v>5713</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>7422</v>
+        <v>7434</v>
       </c>
       <c r="C37" s="4">
         <v>546</v>
       </c>
       <c r="D37" s="4">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="E37" s="4">
-        <v>9213</v>
+        <v>9229</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>21527</v>
+        <v>21720</v>
       </c>
       <c r="C38" s="4">
         <v>760</v>
       </c>
       <c r="D38" s="4">
-        <v>6960</v>
+        <v>6972</v>
       </c>
       <c r="E38" s="4">
-        <v>29247</v>
+        <v>29452</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1706,10 +1706,10 @@
         <v>359</v>
       </c>
       <c r="D39" s="4">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="E39" s="4">
-        <v>7238</v>
+        <v>7239</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>3923</v>
+        <v>3927</v>
       </c>
       <c r="C40" s="4">
         <v>421</v>
       </c>
       <c r="D40" s="4">
-        <v>1403</v>
+        <v>1417</v>
       </c>
       <c r="E40" s="4">
-        <v>5747</v>
+        <v>5765</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="C42" s="4">
         <v>26</v>
       </c>
       <c r="D42" s="4">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="E42" s="4">
-        <v>3626</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1774,10 +1774,10 @@
         <v>88</v>
       </c>
       <c r="D43" s="4">
-        <v>2622</v>
+        <v>2629</v>
       </c>
       <c r="E43" s="4">
-        <v>5690</v>
+        <v>5697</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>830691</v>
+        <v>831944</v>
       </c>
       <c r="C44" s="4">
-        <v>77760</v>
+        <v>77822</v>
       </c>
       <c r="D44" s="4">
-        <v>85041</v>
+        <v>85804</v>
       </c>
       <c r="E44" s="4">
-        <v>993492</v>
+        <v>995570</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,7 +1802,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C45" s="4">
         <v>95</v>
@@ -1811,7 +1811,7 @@
         <v>1275</v>
       </c>
       <c r="E45" s="4">
-        <v>2376</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>11144</v>
+        <v>11154</v>
       </c>
       <c r="C46" s="4">
         <v>312</v>
       </c>
       <c r="D46" s="4">
-        <v>3651</v>
+        <v>3653</v>
       </c>
       <c r="E46" s="4">
-        <v>15107</v>
+        <v>15119</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>89679</v>
+        <v>89853</v>
       </c>
       <c r="C47" s="4">
-        <v>7159</v>
+        <v>7163</v>
       </c>
       <c r="D47" s="4">
-        <v>17400</v>
+        <v>17419</v>
       </c>
       <c r="E47" s="4">
-        <v>114238</v>
+        <v>114435</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>6216</v>
+        <v>6218</v>
       </c>
       <c r="C48" s="4">
         <v>297</v>
       </c>
       <c r="D48" s="4">
-        <v>2117</v>
+        <v>2124</v>
       </c>
       <c r="E48" s="4">
-        <v>8630</v>
+        <v>8639</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C49" s="4">
         <v>15</v>
       </c>
       <c r="D49" s="4">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="E49" s="4">
-        <v>2794</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>22266</v>
+        <v>22278</v>
       </c>
       <c r="C50" s="4">
         <v>1297</v>
       </c>
       <c r="D50" s="4">
-        <v>4520</v>
+        <v>4523</v>
       </c>
       <c r="E50" s="4">
-        <v>28083</v>
+        <v>28098</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>80354</v>
+        <v>80400</v>
       </c>
       <c r="C51" s="4">
-        <v>2145</v>
+        <v>2148</v>
       </c>
       <c r="D51" s="4">
-        <v>3242</v>
+        <v>3250</v>
       </c>
       <c r="E51" s="4">
-        <v>85741</v>
+        <v>85798</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1944,10 +1944,10 @@
         <v>66</v>
       </c>
       <c r="D53" s="4">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="E53" s="4">
-        <v>5470</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1955,16 +1955,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C54" s="4">
         <v>13</v>
       </c>
       <c r="D54" s="4">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="E54" s="4">
-        <v>2796</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>2389</v>
+        <v>2392</v>
       </c>
       <c r="C55" s="4">
         <v>23</v>
       </c>
       <c r="D55" s="4">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="E55" s="4">
-        <v>3899</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,7 +1989,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="C56" s="4">
         <v>14</v>
@@ -1998,7 +1998,7 @@
         <v>132</v>
       </c>
       <c r="E56" s="4">
-        <v>2260</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>2114851</v>
+        <v>2117608</v>
       </c>
       <c r="C58" s="4">
-        <v>127964</v>
+        <v>128105</v>
       </c>
       <c r="D58" s="4">
-        <v>179589</v>
+        <v>179858</v>
       </c>
       <c r="E58" s="4">
-        <v>2422404</v>
+        <v>2425571</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>7532</v>
+        <v>7536</v>
       </c>
       <c r="C59" s="4">
         <v>447</v>
       </c>
       <c r="D59" s="4">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="E59" s="4">
-        <v>10034</v>
+        <v>10040</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>8433</v>
+        <v>8443</v>
       </c>
       <c r="C60" s="4">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D60" s="4">
-        <v>2213</v>
+        <v>2221</v>
       </c>
       <c r="E60" s="4">
-        <v>10878</v>
+        <v>10897</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>4534</v>
+        <v>4538</v>
       </c>
       <c r="C61" s="4">
         <v>825</v>
       </c>
       <c r="D61" s="4">
-        <v>2065</v>
+        <v>2067</v>
       </c>
       <c r="E61" s="4">
-        <v>7424</v>
+        <v>7430</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="C62" s="4">
         <v>220</v>
       </c>
       <c r="D62" s="4">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E62" s="4">
-        <v>2855</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>518510</v>
+        <v>519236</v>
       </c>
       <c r="C63" s="4">
-        <v>57278</v>
+        <v>57345</v>
       </c>
       <c r="D63" s="4">
-        <v>76590</v>
+        <v>76703</v>
       </c>
       <c r="E63" s="4">
-        <v>652378</v>
+        <v>653284</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2142,7 +2142,7 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>10104</v>
+        <v>10152</v>
       </c>
       <c r="C65" s="4">
         <v>93</v>
@@ -2151,7 +2151,7 @@
         <v>1535</v>
       </c>
       <c r="E65" s="4">
-        <v>11732</v>
+        <v>11780</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>16303</v>
+        <v>16306</v>
       </c>
       <c r="C67" s="4">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="D67" s="4">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E67" s="4">
-        <v>20602</v>
+        <v>20608</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>4473</v>
+        <v>4475</v>
       </c>
       <c r="C68" s="4">
         <v>345</v>
       </c>
       <c r="D68" s="4">
-        <v>3304</v>
+        <v>3306</v>
       </c>
       <c r="E68" s="4">
-        <v>8122</v>
+        <v>8126</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>55818</v>
+        <v>55852</v>
       </c>
       <c r="C69" s="4">
-        <v>4554</v>
+        <v>4555</v>
       </c>
       <c r="D69" s="4">
-        <v>16390</v>
+        <v>16413</v>
       </c>
       <c r="E69" s="4">
-        <v>76762</v>
+        <v>76820</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>805198</v>
+        <v>805759</v>
       </c>
       <c r="C71" s="4">
-        <v>16319</v>
+        <v>16337</v>
       </c>
       <c r="D71" s="4">
-        <v>206551</v>
+        <v>206713</v>
       </c>
       <c r="E71" s="4">
-        <v>1028068</v>
+        <v>1028809</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>151975</v>
+        <v>152074</v>
       </c>
       <c r="C72" s="4">
-        <v>6865</v>
+        <v>6872</v>
       </c>
       <c r="D72" s="4">
-        <v>12938</v>
+        <v>12985</v>
       </c>
       <c r="E72" s="4">
-        <v>171778</v>
+        <v>171931</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>16746</v>
+        <v>16758</v>
       </c>
       <c r="C73" s="4">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D73" s="4">
-        <v>6043</v>
+        <v>6045</v>
       </c>
       <c r="E73" s="4">
-        <v>23890</v>
+        <v>23905</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>11784</v>
+        <v>11791</v>
       </c>
       <c r="C74" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D74" s="4">
-        <v>2743</v>
+        <v>2745</v>
       </c>
       <c r="E74" s="4">
-        <v>14935</v>
+        <v>14945</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>24050</v>
+        <v>24055</v>
       </c>
       <c r="C75" s="4">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D75" s="4">
-        <v>4237</v>
+        <v>4240</v>
       </c>
       <c r="E75" s="4">
-        <v>29059</v>
+        <v>29068</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>13159</v>
+        <v>13175</v>
       </c>
       <c r="C76" s="4">
         <v>415</v>
       </c>
       <c r="D76" s="4">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="E76" s="4">
-        <v>15655</v>
+        <v>15672</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,16 +2346,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="C77" s="4">
         <v>29</v>
       </c>
       <c r="D77" s="4">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E77" s="4">
-        <v>1597</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2366,13 +2366,13 @@
         <v>2226</v>
       </c>
       <c r="C78" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D78" s="4">
         <v>322</v>
       </c>
       <c r="E78" s="4">
-        <v>2660</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>592490</v>
+        <v>593741</v>
       </c>
       <c r="C80" s="4">
-        <v>22010</v>
+        <v>22053</v>
       </c>
       <c r="D80" s="4">
-        <v>35296</v>
+        <v>35440</v>
       </c>
       <c r="E80" s="4">
-        <v>649796</v>
+        <v>651234</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>4159</v>
+        <v>4163</v>
       </c>
       <c r="C81" s="4">
         <v>474</v>
       </c>
       <c r="D81" s="4">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E81" s="4">
-        <v>5328</v>
+        <v>5333</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>13198</v>
+        <v>13202</v>
       </c>
       <c r="C82" s="4">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D82" s="4">
-        <v>4386</v>
+        <v>4399</v>
       </c>
       <c r="E82" s="4">
-        <v>18245</v>
+        <v>18265</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>15648</v>
+        <v>15684</v>
       </c>
       <c r="C83" s="4">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D83" s="4">
         <v>759</v>
       </c>
       <c r="E83" s="4">
-        <v>16842</v>
+        <v>16881</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2471,10 +2471,10 @@
         <v>218</v>
       </c>
       <c r="D84" s="4">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E84" s="4">
-        <v>4216</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>315218</v>
+        <v>315823</v>
       </c>
       <c r="C85" s="4">
-        <v>9498</v>
+        <v>9531</v>
       </c>
       <c r="D85" s="4">
-        <v>24268</v>
+        <v>24295</v>
       </c>
       <c r="E85" s="4">
-        <v>348984</v>
+        <v>349649</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2505,10 +2505,10 @@
         <v>50</v>
       </c>
       <c r="D86" s="4">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="E86" s="4">
-        <v>3128</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>14799</v>
+        <v>14805</v>
       </c>
       <c r="C87" s="4">
         <v>373</v>
       </c>
       <c r="D87" s="4">
-        <v>3239</v>
+        <v>3268</v>
       </c>
       <c r="E87" s="4">
-        <v>18411</v>
+        <v>18446</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2498</v>
+        <v>2510</v>
       </c>
       <c r="C89" s="4">
         <v>156</v>
       </c>
       <c r="D89" s="4">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="E89" s="4">
-        <v>4345</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>11975</v>
+        <v>11984</v>
       </c>
       <c r="C90" s="4">
         <v>317</v>
       </c>
       <c r="D90" s="4">
-        <v>3573</v>
+        <v>3696</v>
       </c>
       <c r="E90" s="4">
-        <v>15865</v>
+        <v>15997</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,7 +2584,7 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>7212</v>
+        <v>7215</v>
       </c>
       <c r="C91" s="4">
         <v>906</v>
@@ -2593,7 +2593,7 @@
         <v>1910</v>
       </c>
       <c r="E91" s="4">
-        <v>10028</v>
+        <v>10031</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>96323</v>
+        <v>96382</v>
       </c>
       <c r="C92" s="4">
         <v>3780</v>
       </c>
       <c r="D92" s="4">
-        <v>11929</v>
+        <v>11932</v>
       </c>
       <c r="E92" s="4">
-        <v>112032</v>
+        <v>112094</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>45025</v>
+        <v>45067</v>
       </c>
       <c r="C93" s="4">
-        <v>10103</v>
+        <v>10121</v>
       </c>
       <c r="D93" s="4">
-        <v>13848</v>
+        <v>13862</v>
       </c>
       <c r="E93" s="4">
-        <v>68976</v>
+        <v>69050</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>26942</v>
+        <v>26981</v>
       </c>
       <c r="C94" s="4">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D94" s="4">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="E94" s="4">
-        <v>29616</v>
+        <v>29658</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>71211</v>
+        <v>71318</v>
       </c>
       <c r="C95" s="4">
         <v>3403</v>
       </c>
       <c r="D95" s="4">
-        <v>14070</v>
+        <v>14079</v>
       </c>
       <c r="E95" s="4">
-        <v>88684</v>
+        <v>88800</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>13072</v>
+        <v>13103</v>
       </c>
       <c r="C96" s="4">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D96" s="4">
-        <v>2033</v>
+        <v>2051</v>
       </c>
       <c r="E96" s="4">
-        <v>15393</v>
+        <v>15444</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,7 +2686,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1129</v>
+        <v>1134</v>
       </c>
       <c r="C97" s="4">
         <v>42</v>
@@ -2695,7 +2695,7 @@
         <v>2005</v>
       </c>
       <c r="E97" s="4">
-        <v>3176</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>4795</v>
+        <v>4799</v>
       </c>
       <c r="C98" s="4">
         <v>306</v>
       </c>
       <c r="D98" s="4">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="E98" s="4">
-        <v>6236</v>
+        <v>6242</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C99" s="4">
         <v>606</v>
       </c>
       <c r="D99" s="4">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="E99" s="4">
-        <v>3540</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>18931</v>
+        <v>18972</v>
       </c>
       <c r="C101" s="4">
-        <v>3176</v>
+        <v>3179</v>
       </c>
       <c r="D101" s="4">
-        <v>5774</v>
+        <v>5787</v>
       </c>
       <c r="E101" s="4">
-        <v>27881</v>
+        <v>27938</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>3633086</v>
+        <v>3640128</v>
       </c>
       <c r="C102" s="4">
-        <v>132098</v>
+        <v>132342</v>
       </c>
       <c r="D102" s="4">
-        <v>284372</v>
+        <v>285282</v>
       </c>
       <c r="E102" s="4">
-        <v>4049556</v>
+        <v>4057752</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>54989</v>
+        <v>55031</v>
       </c>
       <c r="C103" s="4">
-        <v>7547</v>
+        <v>7553</v>
       </c>
       <c r="D103" s="4">
-        <v>7950</v>
+        <v>7972</v>
       </c>
       <c r="E103" s="4">
-        <v>70486</v>
+        <v>70556</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C105" s="4">
         <v>34</v>
       </c>
       <c r="D105" s="4">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="E105" s="4">
-        <v>2561</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>214729</v>
+        <v>215101</v>
       </c>
       <c r="C106" s="4">
-        <v>10255</v>
+        <v>10267</v>
       </c>
       <c r="D106" s="4">
-        <v>14429</v>
+        <v>14432</v>
       </c>
       <c r="E106" s="4">
-        <v>239413</v>
+        <v>239800</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2862,10 +2862,10 @@
         <v>392</v>
       </c>
       <c r="D107" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E107" s="4">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>24902</v>
+        <v>24933</v>
       </c>
       <c r="C108" s="4">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="D108" s="4">
-        <v>7368</v>
+        <v>7381</v>
       </c>
       <c r="E108" s="4">
-        <v>34397</v>
+        <v>34442</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>410378</v>
+        <v>410838</v>
       </c>
       <c r="C109" s="4">
-        <v>14716</v>
+        <v>14722</v>
       </c>
       <c r="D109" s="4">
-        <v>116739</v>
+        <v>117116</v>
       </c>
       <c r="E109" s="4">
-        <v>541833</v>
+        <v>542676</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>30937</v>
+        <v>30948</v>
       </c>
       <c r="C110" s="4">
         <v>971</v>
       </c>
       <c r="D110" s="4">
-        <v>5474</v>
+        <v>5534</v>
       </c>
       <c r="E110" s="4">
-        <v>37382</v>
+        <v>37453</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>7476</v>
+        <v>7487</v>
       </c>
       <c r="C111" s="4">
         <v>82</v>
       </c>
       <c r="D111" s="4">
-        <v>2980</v>
+        <v>2986</v>
       </c>
       <c r="E111" s="4">
-        <v>10538</v>
+        <v>10555</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>32601</v>
+        <v>32605</v>
       </c>
       <c r="C112" s="4">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="D112" s="4">
-        <v>17251</v>
+        <v>17326</v>
       </c>
       <c r="E112" s="4">
-        <v>52177</v>
+        <v>52257</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>15895</v>
+        <v>15912</v>
       </c>
       <c r="C113" s="4">
         <v>1850</v>
       </c>
       <c r="D113" s="4">
-        <v>2913</v>
+        <v>2922</v>
       </c>
       <c r="E113" s="4">
-        <v>20658</v>
+        <v>20684</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>14349</v>
+        <v>14363</v>
       </c>
       <c r="C114" s="4">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D114" s="4">
-        <v>2765</v>
+        <v>2783</v>
       </c>
       <c r="E114" s="4">
-        <v>17460</v>
+        <v>17493</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>15633</v>
+        <v>15669</v>
       </c>
       <c r="C115" s="4">
         <v>472</v>
       </c>
       <c r="D115" s="4">
-        <v>3887</v>
+        <v>3893</v>
       </c>
       <c r="E115" s="4">
-        <v>19992</v>
+        <v>20034</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,7 +3009,7 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="C116" s="4">
         <v>31</v>
@@ -3018,7 +3018,7 @@
         <v>963</v>
       </c>
       <c r="E116" s="4">
-        <v>3376</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>70814</v>
+        <v>70886</v>
       </c>
       <c r="C117" s="4">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="D117" s="4">
-        <v>8956</v>
+        <v>8982</v>
       </c>
       <c r="E117" s="4">
-        <v>83354</v>
+        <v>83453</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>8144</v>
+        <v>8146</v>
       </c>
       <c r="C118" s="4">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="D118" s="4">
         <v>3379</v>
       </c>
       <c r="E118" s="4">
-        <v>12779</v>
+        <v>12784</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="C120" s="4">
         <v>179</v>
       </c>
       <c r="D120" s="4">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E120" s="4">
-        <v>2198</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>6615</v>
+        <v>6621</v>
       </c>
       <c r="C121" s="4">
         <v>156</v>
       </c>
       <c r="D121" s="4">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="E121" s="4">
-        <v>8345</v>
+        <v>8352</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>12604</v>
+        <v>12629</v>
       </c>
       <c r="C122" s="4">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="D122" s="4">
         <v>3378</v>
       </c>
       <c r="E122" s="4">
-        <v>18520</v>
+        <v>18546</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>149685</v>
+        <v>149796</v>
       </c>
       <c r="C124" s="4">
-        <v>12018</v>
+        <v>12027</v>
       </c>
       <c r="D124" s="4">
-        <v>31265</v>
+        <v>31290</v>
       </c>
       <c r="E124" s="4">
-        <v>192968</v>
+        <v>193113</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>12980</v>
+        <v>12984</v>
       </c>
       <c r="C125" s="4">
         <v>508</v>
       </c>
       <c r="D125" s="4">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="E125" s="4">
-        <v>16741</v>
+        <v>16746</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>44565</v>
+        <v>44575</v>
       </c>
       <c r="C126" s="4">
-        <v>7447</v>
+        <v>7448</v>
       </c>
       <c r="D126" s="4">
-        <v>13517</v>
+        <v>13531</v>
       </c>
       <c r="E126" s="4">
-        <v>65529</v>
+        <v>65554</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>107794</v>
+        <v>107946</v>
       </c>
       <c r="C127" s="4">
-        <v>6380</v>
+        <v>6390</v>
       </c>
       <c r="D127" s="4">
-        <v>14325</v>
+        <v>14521</v>
       </c>
       <c r="E127" s="4">
-        <v>128499</v>
+        <v>128857</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>5618</v>
+        <v>5625</v>
       </c>
       <c r="C128" s="4">
         <v>193</v>
       </c>
       <c r="D128" s="4">
-        <v>2654</v>
+        <v>2660</v>
       </c>
       <c r="E128" s="4">
-        <v>8465</v>
+        <v>8478</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>12779</v>
+        <v>12785</v>
       </c>
       <c r="C129" s="4">
         <v>405</v>
       </c>
       <c r="D129" s="4">
-        <v>4317</v>
+        <v>4319</v>
       </c>
       <c r="E129" s="4">
-        <v>17501</v>
+        <v>17509</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>94878</v>
+        <v>95060</v>
       </c>
       <c r="C130" s="4">
-        <v>4986</v>
+        <v>4988</v>
       </c>
       <c r="D130" s="4">
-        <v>15085</v>
+        <v>15097</v>
       </c>
       <c r="E130" s="4">
-        <v>114949</v>
+        <v>115145</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>21089</v>
+        <v>21119</v>
       </c>
       <c r="C131" s="4">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D131" s="4">
-        <v>7597</v>
+        <v>7642</v>
       </c>
       <c r="E131" s="4">
-        <v>30053</v>
+        <v>30129</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>28903</v>
+        <v>29033</v>
       </c>
       <c r="C134" s="4">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D134" s="4">
-        <v>17779</v>
+        <v>17787</v>
       </c>
       <c r="E134" s="4">
-        <v>47431</v>
+        <v>47571</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,7 +3332,7 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="C135" s="4">
         <v>38</v>
@@ -3341,7 +3341,7 @@
         <v>327</v>
       </c>
       <c r="E135" s="4">
-        <v>1893</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3366,7 +3366,7 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="C137" s="4">
         <v>43</v>
@@ -3375,7 +3375,7 @@
         <v>125</v>
       </c>
       <c r="E137" s="4">
-        <v>2116</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>24773</v>
+        <v>24807</v>
       </c>
       <c r="C138" s="4">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="D138" s="4">
-        <v>6021</v>
+        <v>6029</v>
       </c>
       <c r="E138" s="4">
-        <v>34982</v>
+        <v>35025</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3417,7 +3417,7 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>6742</v>
+        <v>6767</v>
       </c>
       <c r="C140" s="4">
         <v>280</v>
@@ -3426,7 +3426,7 @@
         <v>291</v>
       </c>
       <c r="E140" s="4">
-        <v>7313</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>20949</v>
+        <v>20958</v>
       </c>
       <c r="C141" s="4">
-        <v>2172</v>
+        <v>2177</v>
       </c>
       <c r="D141" s="4">
-        <v>3466</v>
+        <v>3564</v>
       </c>
       <c r="E141" s="4">
-        <v>26587</v>
+        <v>26699</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>5300</v>
+        <v>5304</v>
       </c>
       <c r="C142" s="4">
         <v>89</v>
       </c>
       <c r="D142" s="4">
-        <v>4282</v>
+        <v>4357</v>
       </c>
       <c r="E142" s="4">
-        <v>9671</v>
+        <v>9750</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>15340</v>
+        <v>15365</v>
       </c>
       <c r="C143" s="4">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D143" s="4">
-        <v>3172</v>
+        <v>3203</v>
       </c>
       <c r="E143" s="4">
-        <v>19121</v>
+        <v>19178</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>10816</v>
+        <v>10830</v>
       </c>
       <c r="C144" s="4">
         <v>500</v>
       </c>
       <c r="D144" s="4">
-        <v>2584</v>
+        <v>2600</v>
       </c>
       <c r="E144" s="4">
-        <v>13900</v>
+        <v>13930</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,7 +3502,7 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>7471</v>
+        <v>7488</v>
       </c>
       <c r="C145" s="4">
         <v>213</v>
@@ -3511,7 +3511,7 @@
         <v>2636</v>
       </c>
       <c r="E145" s="4">
-        <v>10320</v>
+        <v>10337</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>8817</v>
+        <v>8840</v>
       </c>
       <c r="C146" s="4">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D146" s="4">
-        <v>1617</v>
+        <v>1623</v>
       </c>
       <c r="E146" s="4">
-        <v>10920</v>
+        <v>10951</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>48194</v>
+        <v>48244</v>
       </c>
       <c r="C147" s="4">
-        <v>2950</v>
+        <v>2954</v>
       </c>
       <c r="D147" s="4">
-        <v>5270</v>
+        <v>5301</v>
       </c>
       <c r="E147" s="4">
-        <v>56414</v>
+        <v>56499</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>28023</v>
+        <v>28055</v>
       </c>
       <c r="C148" s="4">
         <v>580</v>
       </c>
       <c r="D148" s="4">
-        <v>5928</v>
+        <v>5935</v>
       </c>
       <c r="E148" s="4">
-        <v>34531</v>
+        <v>34570</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3593,10 +3593,10 @@
         <v>844</v>
       </c>
       <c r="D150" s="4">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E150" s="4">
-        <v>6510</v>
+        <v>6511</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>9572</v>
+        <v>9592</v>
       </c>
       <c r="C151" s="4">
         <v>321</v>
       </c>
       <c r="D151" s="4">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="E151" s="4">
-        <v>11301</v>
+        <v>11322</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>187462</v>
+        <v>187563</v>
       </c>
       <c r="C153" s="4">
-        <v>6383</v>
+        <v>6387</v>
       </c>
       <c r="D153" s="4">
-        <v>86943</v>
+        <v>87157</v>
       </c>
       <c r="E153" s="4">
-        <v>280788</v>
+        <v>281107</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3658,13 +3658,13 @@
         <v>2803</v>
       </c>
       <c r="C154" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D154" s="4">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="E154" s="4">
-        <v>4650</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,7 +3672,7 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>11452</v>
+        <v>11501</v>
       </c>
       <c r="C155" s="4">
         <v>166</v>
@@ -3681,7 +3681,7 @@
         <v>1816</v>
       </c>
       <c r="E155" s="4">
-        <v>13434</v>
+        <v>13483</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>2250</v>
+        <v>2254</v>
       </c>
       <c r="C156" s="4">
         <v>775</v>
       </c>
       <c r="D156" s="4">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="E156" s="4">
-        <v>4484</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3712,10 +3712,10 @@
         <v>127</v>
       </c>
       <c r="D157" s="4">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E157" s="4">
-        <v>1792</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="C158" s="4">
         <v>58</v>
       </c>
       <c r="D158" s="4">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E158" s="4">
-        <v>2261</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>29437</v>
+        <v>29462</v>
       </c>
       <c r="C159" s="4">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D159" s="4">
         <v>2051</v>
       </c>
       <c r="E159" s="4">
-        <v>32148</v>
+        <v>32174</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>53676</v>
+        <v>53754</v>
       </c>
       <c r="C160" s="4">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D160" s="4">
-        <v>5994</v>
+        <v>5995</v>
       </c>
       <c r="E160" s="4">
-        <v>60017</v>
+        <v>60098</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>211121</v>
+        <v>211274</v>
       </c>
       <c r="C162" s="4">
-        <v>9555</v>
+        <v>9566</v>
       </c>
       <c r="D162" s="4">
-        <v>45672</v>
+        <v>45777</v>
       </c>
       <c r="E162" s="4">
-        <v>266348</v>
+        <v>266617</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>25882</v>
+        <v>25899</v>
       </c>
       <c r="C164" s="4">
         <v>1124</v>
       </c>
       <c r="D164" s="4">
-        <v>4546</v>
+        <v>4553</v>
       </c>
       <c r="E164" s="4">
-        <v>31552</v>
+        <v>31576</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>42515</v>
+        <v>42567</v>
       </c>
       <c r="C166" s="4">
-        <v>5568</v>
+        <v>5572</v>
       </c>
       <c r="D166" s="4">
-        <v>34077</v>
+        <v>34206</v>
       </c>
       <c r="E166" s="4">
-        <v>82160</v>
+        <v>82345</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>15070</v>
+        <v>15087</v>
       </c>
       <c r="C167" s="4">
         <v>860</v>
       </c>
       <c r="D167" s="4">
-        <v>5522</v>
+        <v>5543</v>
       </c>
       <c r="E167" s="4">
-        <v>21452</v>
+        <v>21490</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,7 +3893,7 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>3944</v>
+        <v>3946</v>
       </c>
       <c r="C168" s="4">
         <v>86</v>
@@ -3902,7 +3902,7 @@
         <v>1195</v>
       </c>
       <c r="E168" s="4">
-        <v>5225</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>9800</v>
+        <v>9807</v>
       </c>
       <c r="C170" s="4">
         <v>835</v>
       </c>
       <c r="D170" s="4">
-        <v>2467</v>
+        <v>2475</v>
       </c>
       <c r="E170" s="4">
-        <v>13102</v>
+        <v>13117</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>329346</v>
+        <v>330099</v>
       </c>
       <c r="C171" s="4">
-        <v>16190</v>
+        <v>16225</v>
       </c>
       <c r="D171" s="4">
-        <v>37479</v>
+        <v>37693</v>
       </c>
       <c r="E171" s="4">
-        <v>383015</v>
+        <v>384017</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,7 +3961,7 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>7163</v>
+        <v>7166</v>
       </c>
       <c r="C172" s="4">
         <v>814</v>
@@ -3970,7 +3970,7 @@
         <v>1612</v>
       </c>
       <c r="E172" s="4">
-        <v>9589</v>
+        <v>9592</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>5248</v>
+        <v>5254</v>
       </c>
       <c r="C173" s="4">
         <v>673</v>
       </c>
       <c r="D173" s="4">
-        <v>3684</v>
+        <v>3688</v>
       </c>
       <c r="E173" s="4">
-        <v>9605</v>
+        <v>9615</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3995,7 +3995,7 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C174" s="4">
         <v>11</v>
@@ -4004,7 +4004,7 @@
         <v>98</v>
       </c>
       <c r="E174" s="4">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>38330</v>
+        <v>38379</v>
       </c>
       <c r="C175" s="4">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D175" s="4">
-        <v>5995</v>
+        <v>6020</v>
       </c>
       <c r="E175" s="4">
-        <v>45458</v>
+        <v>45533</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>23939</v>
+        <v>23958</v>
       </c>
       <c r="C176" s="4">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D176" s="4">
-        <v>7654</v>
+        <v>7700</v>
       </c>
       <c r="E176" s="4">
-        <v>33136</v>
+        <v>33202</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>3256</v>
+        <v>3267</v>
       </c>
       <c r="C177" s="4">
         <v>757</v>
       </c>
       <c r="D177" s="4">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="E177" s="4">
-        <v>5889</v>
+        <v>5902</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>7932</v>
+        <v>7934</v>
       </c>
       <c r="C178" s="4">
         <v>142</v>
       </c>
       <c r="D178" s="4">
-        <v>2775</v>
+        <v>2778</v>
       </c>
       <c r="E178" s="4">
-        <v>10849</v>
+        <v>10854</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>198842</v>
+        <v>199032</v>
       </c>
       <c r="C179" s="4">
-        <v>39610</v>
+        <v>39612</v>
       </c>
       <c r="D179" s="4">
-        <v>44952</v>
+        <v>45090</v>
       </c>
       <c r="E179" s="4">
-        <v>283404</v>
+        <v>283734</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>26294</v>
+        <v>26320</v>
       </c>
       <c r="C182" s="4">
-        <v>5255</v>
+        <v>5264</v>
       </c>
       <c r="D182" s="4">
-        <v>9229</v>
+        <v>9231</v>
       </c>
       <c r="E182" s="4">
-        <v>40778</v>
+        <v>40815</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>12520</v>
+        <v>12523</v>
       </c>
       <c r="C183" s="4">
         <v>909</v>
       </c>
       <c r="D183" s="4">
-        <v>4514</v>
+        <v>4522</v>
       </c>
       <c r="E183" s="4">
-        <v>17943</v>
+        <v>17954</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>8352</v>
+        <v>8364</v>
       </c>
       <c r="C184" s="4">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D184" s="4">
-        <v>2968</v>
+        <v>3010</v>
       </c>
       <c r="E184" s="4">
-        <v>12339</v>
+        <v>12394</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>63662</v>
+        <v>63707</v>
       </c>
       <c r="C185" s="4">
         <v>5776</v>
       </c>
       <c r="D185" s="4">
-        <v>15946</v>
+        <v>15972</v>
       </c>
       <c r="E185" s="4">
-        <v>85384</v>
+        <v>85455</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="C186" s="4">
         <v>230</v>
       </c>
       <c r="D186" s="4">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="E186" s="4">
-        <v>3177</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,7 +4216,7 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>9562</v>
+        <v>9570</v>
       </c>
       <c r="C187" s="4">
         <v>97</v>
@@ -4225,7 +4225,7 @@
         <v>936</v>
       </c>
       <c r="E187" s="4">
-        <v>10595</v>
+        <v>10603</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>32345</v>
+        <v>32407</v>
       </c>
       <c r="C188" s="4">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="D188" s="4">
-        <v>5312</v>
+        <v>5320</v>
       </c>
       <c r="E188" s="4">
-        <v>38801</v>
+        <v>38874</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>68387</v>
+        <v>68407</v>
       </c>
       <c r="C189" s="4">
-        <v>6845</v>
+        <v>6847</v>
       </c>
       <c r="D189" s="4">
-        <v>10688</v>
+        <v>10693</v>
       </c>
       <c r="E189" s="4">
-        <v>85920</v>
+        <v>85947</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4273,10 +4273,10 @@
         <v>35</v>
       </c>
       <c r="D190" s="4">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="E190" s="4">
-        <v>8532</v>
+        <v>8533</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2628</v>
+        <v>2631</v>
       </c>
       <c r="C191" s="4">
         <v>380</v>
       </c>
       <c r="D191" s="4">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E191" s="4">
-        <v>3637</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>44033</v>
+        <v>44066</v>
       </c>
       <c r="C192" s="4">
-        <v>13889</v>
+        <v>13897</v>
       </c>
       <c r="D192" s="4">
-        <v>10397</v>
+        <v>10403</v>
       </c>
       <c r="E192" s="4">
-        <v>68319</v>
+        <v>68366</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4318,7 +4318,7 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C193" s="4">
         <v>28</v>
@@ -4327,7 +4327,7 @@
         <v>328</v>
       </c>
       <c r="E193" s="4">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,7 +4335,7 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="C194" s="4">
         <v>65</v>
@@ -4344,7 +4344,7 @@
         <v>473</v>
       </c>
       <c r="E194" s="4">
-        <v>2316</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>5582</v>
+        <v>5584</v>
       </c>
       <c r="C195" s="4">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D195" s="4">
-        <v>1576</v>
+        <v>1592</v>
       </c>
       <c r="E195" s="4">
-        <v>7673</v>
+        <v>7692</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,7 +4369,7 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>6229</v>
+        <v>6232</v>
       </c>
       <c r="C196" s="4">
         <v>150</v>
@@ -4378,7 +4378,7 @@
         <v>779</v>
       </c>
       <c r="E196" s="4">
-        <v>7158</v>
+        <v>7161</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>3748</v>
+        <v>3750</v>
       </c>
       <c r="C197" s="4">
         <v>371</v>
       </c>
       <c r="D197" s="4">
-        <v>2934</v>
+        <v>2982</v>
       </c>
       <c r="E197" s="4">
-        <v>7053</v>
+        <v>7103</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4420,7 +4420,7 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>10779</v>
+        <v>10799</v>
       </c>
       <c r="C199" s="4">
         <v>273</v>
@@ -4429,7 +4429,7 @@
         <v>6065</v>
       </c>
       <c r="E199" s="4">
-        <v>17117</v>
+        <v>17137</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>67606</v>
+        <v>67755</v>
       </c>
       <c r="C200" s="4">
-        <v>5004</v>
+        <v>5016</v>
       </c>
       <c r="D200" s="4">
-        <v>4725</v>
+        <v>4727</v>
       </c>
       <c r="E200" s="4">
-        <v>77335</v>
+        <v>77498</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>5503</v>
+        <v>5504</v>
       </c>
       <c r="C201" s="4">
         <v>145</v>
       </c>
       <c r="D201" s="4">
-        <v>2590</v>
+        <v>2591</v>
       </c>
       <c r="E201" s="4">
-        <v>8238</v>
+        <v>8240</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>17091</v>
+        <v>17116</v>
       </c>
       <c r="C202" s="4">
         <v>1954</v>
       </c>
       <c r="D202" s="4">
-        <v>2229</v>
+        <v>2245</v>
       </c>
       <c r="E202" s="4">
-        <v>21274</v>
+        <v>21315</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>5624</v>
+        <v>5665</v>
       </c>
       <c r="C203" s="4">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D203" s="4">
-        <v>1903</v>
+        <v>1910</v>
       </c>
       <c r="E203" s="4">
-        <v>7903</v>
+        <v>7953</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>5236</v>
+        <v>5245</v>
       </c>
       <c r="C204" s="4">
         <v>72</v>
       </c>
       <c r="D204" s="4">
-        <v>2377</v>
+        <v>2405</v>
       </c>
       <c r="E204" s="4">
-        <v>7685</v>
+        <v>7722</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>15401</v>
+        <v>15429</v>
       </c>
       <c r="C205" s="4">
         <v>1424</v>
       </c>
       <c r="D205" s="4">
-        <v>2741</v>
+        <v>2760</v>
       </c>
       <c r="E205" s="4">
-        <v>19566</v>
+        <v>19613</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>27368</v>
+        <v>27396</v>
       </c>
       <c r="C206" s="4">
-        <v>7301</v>
+        <v>7303</v>
       </c>
       <c r="D206" s="4">
-        <v>14236</v>
+        <v>14330</v>
       </c>
       <c r="E206" s="4">
-        <v>48905</v>
+        <v>49029</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,7 +4556,7 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="C207" s="4">
         <v>78</v>
@@ -4565,7 +4565,7 @@
         <v>1917</v>
       </c>
       <c r="E207" s="4">
-        <v>4605</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4579,10 +4579,10 @@
         <v>12</v>
       </c>
       <c r="D208" s="4">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E208" s="4">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>15865</v>
+        <v>15868</v>
       </c>
       <c r="C209" s="4">
         <v>177</v>
       </c>
       <c r="D209" s="4">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="E209" s="4">
-        <v>16705</v>
+        <v>16711</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>10905</v>
+        <v>10921</v>
       </c>
       <c r="C211" s="4">
         <v>437</v>
       </c>
       <c r="D211" s="4">
-        <v>2892</v>
+        <v>2931</v>
       </c>
       <c r="E211" s="4">
-        <v>14234</v>
+        <v>14289</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>163633</v>
+        <v>163865</v>
       </c>
       <c r="C213" s="4">
         <v>9007</v>
       </c>
       <c r="D213" s="4">
-        <v>19321</v>
+        <v>19415</v>
       </c>
       <c r="E213" s="4">
-        <v>191961</v>
+        <v>192287</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>3878</v>
+        <v>3881</v>
       </c>
       <c r="C214" s="4">
         <v>370</v>
       </c>
       <c r="D214" s="4">
-        <v>3866</v>
+        <v>3871</v>
       </c>
       <c r="E214" s="4">
-        <v>8114</v>
+        <v>8122</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>46382</v>
+        <v>46429</v>
       </c>
       <c r="C215" s="4">
         <v>559</v>
       </c>
       <c r="D215" s="4">
-        <v>9618</v>
+        <v>9624</v>
       </c>
       <c r="E215" s="4">
-        <v>56559</v>
+        <v>56612</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="C216" s="4">
         <v>130</v>
       </c>
       <c r="D216" s="4">
-        <v>1738</v>
+        <v>1744</v>
       </c>
       <c r="E216" s="4">
-        <v>4478</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4726,16 +4726,16 @@
         <v>220</v>
       </c>
       <c r="B217" s="4">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C217" s="4">
         <v>6</v>
       </c>
       <c r="D217" s="4">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E217" s="4">
-        <v>954</v>
+        <v>957</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4760,7 +4760,7 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C219" s="4">
         <v>28</v>
@@ -4769,7 +4769,7 @@
         <v>634</v>
       </c>
       <c r="E219" s="4">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>3540</v>
+        <v>3542</v>
       </c>
       <c r="C220" s="4">
         <v>282</v>
       </c>
       <c r="D220" s="4">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="E220" s="4">
-        <v>4574</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1479360</v>
+        <v>1481570</v>
       </c>
       <c r="C221" s="4">
-        <v>87078</v>
+        <v>87182</v>
       </c>
       <c r="D221" s="4">
-        <v>167435</v>
+        <v>167984</v>
       </c>
       <c r="E221" s="4">
-        <v>1733873</v>
+        <v>1736736</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>79518</v>
+        <v>79571</v>
       </c>
       <c r="C222" s="4">
-        <v>3194</v>
+        <v>3197</v>
       </c>
       <c r="D222" s="4">
-        <v>41827</v>
+        <v>41931</v>
       </c>
       <c r="E222" s="4">
-        <v>124539</v>
+        <v>124699</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>3188</v>
+        <v>3191</v>
       </c>
       <c r="C224" s="4">
         <v>106</v>
       </c>
       <c r="D224" s="4">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="E224" s="4">
-        <v>4345</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>21192</v>
+        <v>21224</v>
       </c>
       <c r="C226" s="4">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D226" s="4">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="E226" s="4">
-        <v>25648</v>
+        <v>25682</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>70031</v>
+        <v>70094</v>
       </c>
       <c r="C227" s="4">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="D227" s="4">
-        <v>37894</v>
+        <v>38036</v>
       </c>
       <c r="E227" s="4">
-        <v>109448</v>
+        <v>109656</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>906096</v>
+        <v>907355</v>
       </c>
       <c r="C228" s="4">
-        <v>38726</v>
+        <v>38752</v>
       </c>
       <c r="D228" s="4">
-        <v>121950</v>
+        <v>122008</v>
       </c>
       <c r="E228" s="4">
-        <v>1066772</v>
+        <v>1068115</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>10066</v>
+        <v>10088</v>
       </c>
       <c r="C229" s="4">
         <v>231</v>
       </c>
       <c r="D229" s="4">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="E229" s="4">
-        <v>12795</v>
+        <v>12819</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>8307</v>
+        <v>8357</v>
       </c>
       <c r="C230" s="4">
         <v>858</v>
       </c>
       <c r="D230" s="4">
-        <v>4015</v>
+        <v>4018</v>
       </c>
       <c r="E230" s="4">
-        <v>13180</v>
+        <v>13233</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>10016</v>
+        <v>10026</v>
       </c>
       <c r="C231" s="4">
-        <v>1973</v>
+        <v>1979</v>
       </c>
       <c r="D231" s="4">
-        <v>3182</v>
+        <v>3186</v>
       </c>
       <c r="E231" s="4">
-        <v>15171</v>
+        <v>15191</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4987,10 +4987,10 @@
         <v>70</v>
       </c>
       <c r="D232" s="4">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="E232" s="4">
-        <v>2801</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>22907</v>
+        <v>22922</v>
       </c>
       <c r="C233" s="4">
         <v>383</v>
       </c>
       <c r="D233" s="4">
-        <v>1365</v>
+        <v>1373</v>
       </c>
       <c r="E233" s="4">
-        <v>24655</v>
+        <v>24678</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>40026</v>
+        <v>40071</v>
       </c>
       <c r="C234" s="4">
         <v>1168</v>
       </c>
       <c r="D234" s="4">
-        <v>9068</v>
+        <v>9069</v>
       </c>
       <c r="E234" s="4">
-        <v>50262</v>
+        <v>50308</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>17259</v>
+        <v>17276</v>
       </c>
       <c r="C235" s="4">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="D235" s="4">
-        <v>5847</v>
+        <v>5854</v>
       </c>
       <c r="E235" s="4">
-        <v>24850</v>
+        <v>24877</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>36567</v>
+        <v>36653</v>
       </c>
       <c r="C236" s="4">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="D236" s="4">
-        <v>13067</v>
+        <v>13097</v>
       </c>
       <c r="E236" s="4">
-        <v>51340</v>
+        <v>51457</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>92770</v>
+        <v>92971</v>
       </c>
       <c r="C237" s="4">
-        <v>1153</v>
+        <v>1160</v>
       </c>
       <c r="D237" s="4">
-        <v>9200</v>
+        <v>9206</v>
       </c>
       <c r="E237" s="4">
-        <v>103123</v>
+        <v>103337</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>29640</v>
+        <v>29795</v>
       </c>
       <c r="C238" s="4">
         <v>774</v>
       </c>
       <c r="D238" s="4">
-        <v>2826</v>
+        <v>2829</v>
       </c>
       <c r="E238" s="4">
-        <v>33240</v>
+        <v>33398</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>4230</v>
+        <v>4234</v>
       </c>
       <c r="C239" s="4">
         <v>141</v>
       </c>
       <c r="D239" s="4">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E239" s="4">
-        <v>4751</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,7 +5117,7 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>33955</v>
+        <v>33994</v>
       </c>
       <c r="C240" s="4">
         <v>549</v>
@@ -5126,7 +5126,7 @@
         <v>5945</v>
       </c>
       <c r="E240" s="4">
-        <v>40449</v>
+        <v>40488</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>330623</v>
+        <v>330966</v>
       </c>
       <c r="C241" s="4">
         <v>4361</v>
       </c>
       <c r="D241" s="4">
-        <v>44939</v>
+        <v>45324</v>
       </c>
       <c r="E241" s="4">
-        <v>379923</v>
+        <v>380651</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>29047</v>
+        <v>29064</v>
       </c>
       <c r="C242" s="4">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="D242" s="4">
-        <v>2690</v>
+        <v>2691</v>
       </c>
       <c r="E242" s="4">
-        <v>32528</v>
+        <v>32550</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5174,10 +5174,10 @@
         <v>327</v>
       </c>
       <c r="D243" s="4">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="E243" s="4">
-        <v>3767</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>99823</v>
+        <v>99859</v>
       </c>
       <c r="C244" s="4">
         <v>5930</v>
       </c>
       <c r="D244" s="4">
-        <v>20003</v>
+        <v>20086</v>
       </c>
       <c r="E244" s="4">
-        <v>125756</v>
+        <v>125875</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>11312</v>
+        <v>11313</v>
       </c>
       <c r="C245" s="4">
         <v>549</v>
       </c>
       <c r="D245" s="4">
-        <v>3810</v>
+        <v>3813</v>
       </c>
       <c r="E245" s="4">
-        <v>15671</v>
+        <v>15675</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>21953</v>
+        <v>21968</v>
       </c>
       <c r="C246" s="4">
         <v>173</v>
       </c>
       <c r="D246" s="4">
-        <v>1580</v>
+        <v>1596</v>
       </c>
       <c r="E246" s="4">
-        <v>23706</v>
+        <v>23737</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>383659</v>
+        <v>384327</v>
       </c>
       <c r="C247" s="4">
-        <v>14043</v>
+        <v>14056</v>
       </c>
       <c r="D247" s="4">
-        <v>53387</v>
+        <v>53414</v>
       </c>
       <c r="E247" s="4">
-        <v>451089</v>
+        <v>451797</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>29444</v>
+        <v>29474</v>
       </c>
       <c r="C248" s="4">
         <v>950</v>
       </c>
       <c r="D248" s="4">
-        <v>6383</v>
+        <v>6385</v>
       </c>
       <c r="E248" s="4">
-        <v>36777</v>
+        <v>36809</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>42753</v>
+        <v>42816</v>
       </c>
       <c r="C250" s="4">
-        <v>3041</v>
+        <v>3047</v>
       </c>
       <c r="D250" s="4">
-        <v>5121</v>
+        <v>5123</v>
       </c>
       <c r="E250" s="4">
-        <v>50915</v>
+        <v>50986</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>15304</v>
+        <v>15323</v>
       </c>
       <c r="C251" s="4">
         <v>1758</v>
       </c>
       <c r="D251" s="4">
-        <v>3396</v>
+        <v>3403</v>
       </c>
       <c r="E251" s="4">
-        <v>20458</v>
+        <v>20484</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5327,10 +5327,10 @@
         <v>102</v>
       </c>
       <c r="D252" s="4">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E252" s="4">
-        <v>2748</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5344,10 +5344,10 @@
         <v>536</v>
       </c>
       <c r="D253" s="4">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="E253" s="4">
-        <v>8668</v>
+        <v>8669</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>15451</v>
+        <v>15456</v>
       </c>
       <c r="C254" s="4">
         <v>124</v>
       </c>
       <c r="D254" s="4">
-        <v>4011</v>
+        <v>4016</v>
       </c>
       <c r="E254" s="4">
-        <v>19586</v>
+        <v>19596</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>9048</v>
+        <v>9049</v>
       </c>
       <c r="C255" s="4">
         <v>231</v>
       </c>
       <c r="D255" s="4">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E255" s="4">
-        <v>9906</v>
+        <v>9911</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>134230</v>
+        <v>134285</v>
       </c>
       <c r="C256" s="4">
         <v>10015</v>
       </c>
       <c r="D256" s="4">
-        <v>5167</v>
+        <v>5176</v>
       </c>
       <c r="E256" s="4">
-        <v>149412</v>
+        <v>149476</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>20456710</v>
+        <v>20486161</v>
       </c>
       <c r="C257" s="4">
-        <v>1055462</v>
+        <v>1056554</v>
       </c>
       <c r="D257" s="4">
-        <v>2885019</v>
+        <v>2893119</v>
       </c>
       <c r="E257" s="4">
-        <v>24397191</v>
+        <v>24435834</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
